--- a/Gantt-diagram.xlsx
+++ b/Gantt-diagram.xlsx
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -825,6 +825,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="15"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -834,17 +839,18 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="16"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="60% - 4. jelölőszín" xfId="16" builtinId="44"/>
@@ -2128,7 +2134,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2142,8 +2148,8 @@
   <dimension ref="A1:CF54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2175,7 +2181,7 @@
       <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="72"/>
+      <c r="W1" s="66"/>
       <c r="X1" s="29"/>
       <c r="Y1" t="s">
         <v>53</v>
@@ -2185,7 +2191,7 @@
       <c r="AF1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="73"/>
+      <c r="AK1" s="67"/>
       <c r="AL1" s="29"/>
       <c r="AM1" t="s">
         <v>11</v>
@@ -2216,135 +2222,135 @@
       <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="69">
+      <c r="D3" s="68">
         <v>45197</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="66">
+      <c r="F4" s="72"/>
+      <c r="G4" s="69">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="66">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="69">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="66">
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="69">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="66">
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="69">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="66">
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="69">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="66">
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="69">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="66">
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="69">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="66">
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="69">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="67"/>
-      <c r="BI4" s="67"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="66">
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="70"/>
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="69">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="67"/>
-      <c r="BM4" s="67"/>
-      <c r="BN4" s="67"/>
-      <c r="BO4" s="67"/>
-      <c r="BP4" s="67"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="66">
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="70"/>
+      <c r="BN4" s="70"/>
+      <c r="BO4" s="70"/>
+      <c r="BP4" s="70"/>
+      <c r="BQ4" s="71"/>
+      <c r="BR4" s="69">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="67"/>
-      <c r="BT4" s="67"/>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="66">
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="70"/>
+      <c r="BU4" s="70"/>
+      <c r="BV4" s="70"/>
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="71"/>
+      <c r="BY4" s="69">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="67"/>
-      <c r="CA4" s="67"/>
-      <c r="CB4" s="67"/>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="68"/>
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="70"/>
+      <c r="CB4" s="70"/>
+      <c r="CC4" s="70"/>
+      <c r="CD4" s="70"/>
+      <c r="CE4" s="71"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -2360,7 +2366,7 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2855,7 +2861,7 @@
         <v>44468</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -2865,11 +2871,11 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="74"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="14"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
@@ -6921,6 +6927,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -6930,11 +6941,6 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:BW6 BY6:CD6 AB7:AF9 AI7:AM9 BD7:BH9 BK7:BO9 BR7:BV9 BY7:CC9 Z18:AA18 AU38:AV38 AN38:AO38 Z38:AA38 BD50:BT50 M38:M51 AU51:AV51 AN51:AO51 Z51:AA51 BD39:BJ41 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BV50:BX50 Q8:Y8 S9:Y9 BD11:BX11 S11:Y11 AC11:AM11 G7:R9 U7:Y9 AB8:AM9 BD8:CC9 AP7:AT9 AW7:BA9 AB11:AF17 AI11:AM17 BD11:BH17 BK11:BO17 BR11:BV17 BY11:CC17 G11:R17 U11:Y17 AP11:AT17 AW11:BA17 AB19:AF37 AI19:AM37 AB25:AM33 G25:Z33 BD25:CE33 AU34:AV34 AN34:AO34 Z34:AA34 BD45:BT46 AU47:AV47 AN47:AO47 Z47:AA47 BD35:BJ37 BP35:BX37 BD38:BQ39 BS38:BX39 BD40:BR40 BD41:BT41 BP39:BX41 BD42:BX43 BD44:BR44 BT44:BX44 BD45:BS47 BU45:BX47 AB35:AM50 BD19:BH50 BK19:BO50 BR19:BV50 BY19:CC50 G19:R50 U19:Z50 AP19:AT50 AW19:BA50 AG7:AH51 BI7:BJ51 BP7:BQ51 BW7:BX51 S7:T51 CD7:CE51">
     <cfRule type="expression" dxfId="80" priority="170">

--- a/Gantt-diagram.xlsx
+++ b/Gantt-diagram.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -128,25 +128,10 @@
     <t>8.4.4. Felhasználói munkamenet tesztelése (TR)</t>
   </si>
   <si>
-    <t>8.4.5. Raktárak kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.6. Árukészletek kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.7. Járművek kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
     <t>8.4.8. Fuvarok kezelésének tesztelése (TR)</t>
   </si>
   <si>
     <t>8.4.9. Email-es funkciók tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.11. Biztonsági mentés tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.12. Bemutató elkészítése</t>
   </si>
   <si>
     <r>
@@ -195,22 +180,49 @@
     <t>8.3.12. Foglalt időpontok megjelenítése, kezdő és a vég időpontal együtt</t>
   </si>
   <si>
-    <t>8.3.10. -</t>
-  </si>
-  <si>
-    <t>8.3.9. -</t>
-  </si>
-  <si>
-    <t>8.3.8. -</t>
-  </si>
-  <si>
-    <t>8.4.10. -</t>
-  </si>
-  <si>
     <t>Nagy Péter</t>
   </si>
   <si>
     <t>Szabó Timea</t>
+  </si>
+  <si>
+    <t>8.3.8. Teszt oldal kivitelezése</t>
+  </si>
+  <si>
+    <t>8.3.9. Bemutatkozó oldal</t>
+  </si>
+  <si>
+    <t>8.3.10. Páciensek lecke oldala</t>
+  </si>
+  <si>
+    <t>8.4.5. Cikkek kezelésének tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.6. Tesztek elérése és kezelésének tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.7. Leckék kezelésének tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.10. Biztonsági mentés tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.11. Bemutató elkészítése</t>
+  </si>
+  <si>
+    <t>Kiss Csaba</t>
+  </si>
+  <si>
+    <t>Veszeli Karina</t>
+  </si>
+  <si>
+    <t>Juhász Ferenc</t>
+  </si>
+  <si>
+    <t>Masa Roland</t>
+  </si>
+  <si>
+    <t>Durucz Ádám</t>
   </si>
 </sst>
 </file>
@@ -225,12 +237,20 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,8 +397,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,8 +505,52 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -611,111 +683,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,112 +829,111 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="14"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="11" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="16"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="15"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -839,20 +944,42 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" xfId="18" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="12" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="12" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="12" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="60% - 4. jelölőszín" xfId="16" builtinId="44"/>
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
@@ -861,9 +988,13 @@
     <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Jegyzet" xfId="18" builtinId="10"/>
     <cellStyle name="Jelölőszín (2)" xfId="12" builtinId="33"/>
     <cellStyle name="Jelölőszín (3)" xfId="13" builtinId="37"/>
+    <cellStyle name="Jelölőszín (4)" xfId="19" builtinId="41"/>
     <cellStyle name="Jelölőszín (5)" xfId="14" builtinId="45"/>
+    <cellStyle name="Jelölőszín (6)" xfId="20" builtinId="49"/>
+    <cellStyle name="Jó" xfId="17" builtinId="26"/>
     <cellStyle name="Name" xfId="10"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Project Start" xfId="8"/>
@@ -871,7 +1002,487 @@
     <cellStyle name="Task" xfId="11"/>
     <cellStyle name="zHiddenText" xfId="2"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="138">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1778,15 +2389,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="89"/>
-      <tableStyleElement type="headerRow" dxfId="88"/>
-      <tableStyleElement type="totalRow" dxfId="87"/>
-      <tableStyleElement type="firstColumn" dxfId="86"/>
-      <tableStyleElement type="lastColumn" dxfId="85"/>
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="secondRowStripe" dxfId="83"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="82"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="81"/>
+      <tableStyleElement type="wholeTable" dxfId="137"/>
+      <tableStyleElement type="headerRow" dxfId="136"/>
+      <tableStyleElement type="totalRow" dxfId="135"/>
+      <tableStyleElement type="firstColumn" dxfId="134"/>
+      <tableStyleElement type="lastColumn" dxfId="133"/>
+      <tableStyleElement type="firstRowStripe" dxfId="132"/>
+      <tableStyleElement type="secondRowStripe" dxfId="131"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="130"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="129"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2134,7 +2745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2147,9 +2758,9 @@
   </sheetPr>
   <dimension ref="A1:CF54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomLeft" activeCell="AF14" sqref="AE14:AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2165,7 +2776,7 @@
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="17"/>
       <c r="B1" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -2174,183 +2785,183 @@
       <c r="G1" s="15"/>
       <c r="I1" s="29"/>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O1" s="59"/>
       <c r="P1" s="29"/>
       <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="66"/>
+        <v>45</v>
+      </c>
+      <c r="W1" s="64"/>
       <c r="X1" s="29"/>
       <c r="Y1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="61"/>
+        <v>44</v>
+      </c>
+      <c r="AD1" s="60"/>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="67"/>
+      <c r="AK1" s="65"/>
       <c r="AL1" s="29"/>
       <c r="AM1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS1" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="AS1" s="79"/>
       <c r="AT1" s="29"/>
       <c r="AU1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA1" s="60"/>
+        <v>55</v>
+      </c>
+      <c r="BA1" s="80"/>
       <c r="BB1" s="29"/>
       <c r="BC1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI1" s="60"/>
+        <v>56</v>
+      </c>
+      <c r="BI1" s="83"/>
       <c r="BJ1" s="29"/>
       <c r="BK1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BQ1" s="60"/>
+        <v>57</v>
+      </c>
+      <c r="BQ1" s="81"/>
       <c r="BR1" s="29"/>
       <c r="BS1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BY1" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="BY1" s="82"/>
     </row>
     <row r="2" spans="1:83" ht="25.5" customHeight="1">
       <c r="B2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="68"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="68">
+      <c r="D3" s="71">
         <v>45197</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
       <c r="F4" s="72"/>
-      <c r="G4" s="69">
+      <c r="G4" s="68">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="69">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="68">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="69">
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="68">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="69">
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="68">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="69">
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="68">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="69">
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="68">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="69">
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="68">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="69">
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="68">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="69">
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="68">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="70"/>
-      <c r="BO4" s="70"/>
-      <c r="BP4" s="70"/>
-      <c r="BQ4" s="71"/>
-      <c r="BR4" s="69">
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="69"/>
+      <c r="BN4" s="69"/>
+      <c r="BO4" s="69"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="70"/>
+      <c r="BR4" s="68">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="70"/>
-      <c r="BT4" s="70"/>
-      <c r="BU4" s="70"/>
-      <c r="BV4" s="70"/>
-      <c r="BW4" s="70"/>
-      <c r="BX4" s="71"/>
-      <c r="BY4" s="69">
+      <c r="BS4" s="69"/>
+      <c r="BT4" s="69"/>
+      <c r="BU4" s="69"/>
+      <c r="BV4" s="69"/>
+      <c r="BW4" s="69"/>
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="68">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="70"/>
-      <c r="CA4" s="70"/>
-      <c r="CB4" s="70"/>
-      <c r="CC4" s="70"/>
-      <c r="CD4" s="70"/>
-      <c r="CE4" s="71"/>
+      <c r="BZ4" s="69"/>
+      <c r="CA4" s="69"/>
+      <c r="CB4" s="69"/>
+      <c r="CC4" s="69"/>
+      <c r="CD4" s="69"/>
+      <c r="CE4" s="70"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -2854,28 +3465,28 @@
         <v>8</v>
       </c>
       <c r="D8" s="37">
-        <v>44465</v>
+        <v>45197</v>
       </c>
       <c r="E8" s="37">
         <f>D8+3</f>
-        <v>44468</v>
+        <v>45200</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="74"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="74"/>
+      <c r="Q8" s="66"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
@@ -2944,15 +3555,15 @@
       <c r="B9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>9</v>
+      <c r="C9" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="37">
-        <v>44469</v>
+        <v>45209</v>
       </c>
       <c r="E9" s="37">
         <f>D9+1</f>
-        <v>44470</v>
+        <v>45210</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="14"/>
@@ -2970,8 +3581,8 @@
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="27"/>
@@ -3129,11 +3740,11 @@
         <v>9</v>
       </c>
       <c r="D11" s="43">
-        <v>44474</v>
+        <v>45214</v>
       </c>
       <c r="E11" s="43">
-        <f>D11+2</f>
-        <v>44476</v>
+        <f>D11+5</f>
+        <v>45219</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="14"/>
@@ -3156,12 +3767,12 @@
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
       <c r="AG11" s="27"/>
       <c r="AH11" s="27"/>
       <c r="AI11" s="14"/>
@@ -3223,11 +3834,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="43">
-        <v>44474</v>
+        <v>45215</v>
       </c>
       <c r="E12" s="43">
-        <f>D12+3</f>
-        <v>44477</v>
+        <f t="shared" ref="E12:E16" si="23">D12+5</f>
+        <v>45220</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="14"/>
@@ -3251,12 +3862,12 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="27"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
       <c r="AH12" s="27"/>
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
@@ -3317,11 +3928,11 @@
         <v>11</v>
       </c>
       <c r="D13" s="43">
-        <v>44480</v>
+        <v>45216</v>
       </c>
       <c r="E13" s="43">
-        <f>D13+2</f>
-        <v>44482</v>
+        <f t="shared" si="23"/>
+        <v>45221</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="14"/>
@@ -3411,11 +4022,11 @@
         <v>11</v>
       </c>
       <c r="D14" s="43">
-        <v>44480</v>
+        <v>45217</v>
       </c>
       <c r="E14" s="43">
-        <f>D14+3</f>
-        <v>44483</v>
+        <f t="shared" si="23"/>
+        <v>45222</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="14"/>
@@ -3442,8 +4053,8 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="14"/>
@@ -3505,11 +4116,11 @@
         <v>9</v>
       </c>
       <c r="D15" s="43">
-        <v>44475</v>
+        <v>45218</v>
       </c>
       <c r="E15" s="43">
-        <f>D15+2</f>
-        <v>44477</v>
+        <f t="shared" si="23"/>
+        <v>45223</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="14"/>
@@ -3539,8 +4150,8 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
       <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="14"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
       <c r="AJ15" s="14"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -3599,11 +4210,11 @@
         <v>9</v>
       </c>
       <c r="D16" s="43">
-        <v>44478</v>
+        <v>45219</v>
       </c>
       <c r="E16" s="43">
-        <f>D16+2</f>
-        <v>44480</v>
+        <f t="shared" si="23"/>
+        <v>45224</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="14"/>
@@ -3689,15 +4300,15 @@
       <c r="B17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>10</v>
+      <c r="C17" s="84" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="43">
-        <v>44484</v>
+        <v>45220</v>
       </c>
       <c r="E17" s="43">
-        <f>D17</f>
-        <v>44484</v>
+        <f>D17+5</f>
+        <v>45225</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="14"/>
@@ -3726,12 +4337,12 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
       <c r="AM17" s="14"/>
       <c r="AN17" s="27"/>
       <c r="AO17" s="27"/>
@@ -3876,11 +4487,11 @@
         <v>9</v>
       </c>
       <c r="D19" s="49">
-        <v>44492</v>
+        <v>45222</v>
       </c>
       <c r="E19" s="49">
-        <f>D19+4</f>
-        <v>44496</v>
+        <f>D19+5</f>
+        <v>45227</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="14"/>
@@ -3970,11 +4581,11 @@
         <v>11</v>
       </c>
       <c r="D20" s="49">
-        <v>44489</v>
+        <v>45223</v>
       </c>
       <c r="E20" s="49">
-        <f>D20+3</f>
-        <v>44492</v>
+        <f t="shared" ref="E20:E33" si="24">D20+5</f>
+        <v>45228</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="14"/>
@@ -4058,17 +4669,17 @@
     <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="17"/>
       <c r="B21" s="47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="49">
-        <v>44488</v>
+        <v>45224</v>
       </c>
       <c r="E21" s="49">
-        <f>D21+2</f>
-        <v>44490</v>
+        <f t="shared" si="24"/>
+        <v>45229</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14"/>
@@ -4158,11 +4769,11 @@
         <v>9</v>
       </c>
       <c r="D22" s="49">
-        <v>44497</v>
+        <v>45225</v>
       </c>
       <c r="E22" s="49">
-        <f>D22+9</f>
-        <v>44506</v>
+        <f t="shared" si="24"/>
+        <v>45230</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="14"/>
@@ -4245,18 +4856,18 @@
     </row>
     <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="62" t="s">
-        <v>41</v>
+      <c r="B23" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="48" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="49">
-        <v>44501</v>
+        <v>45226</v>
       </c>
       <c r="E23" s="49">
-        <f>D23+2</f>
-        <v>44503</v>
+        <f t="shared" si="24"/>
+        <v>45231</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="14"/>
@@ -4339,18 +4950,18 @@
     </row>
     <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="62" t="s">
-        <v>42</v>
+      <c r="B24" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="49">
-        <v>44494</v>
+        <v>45227</v>
       </c>
       <c r="E24" s="49">
-        <f>D24+3</f>
-        <v>44497</v>
+        <f t="shared" si="24"/>
+        <v>45232</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="14"/>
@@ -4433,18 +5044,18 @@
     </row>
     <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="63" t="s">
-        <v>47</v>
+      <c r="B25" s="62" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="49">
-        <v>44493</v>
+        <v>45228</v>
       </c>
       <c r="E25" s="49">
-        <f>D25+2</f>
-        <v>44495</v>
+        <f t="shared" si="24"/>
+        <v>45233</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="14"/>
@@ -4527,18 +5138,18 @@
     </row>
     <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="64" t="s">
-        <v>51</v>
+      <c r="B26" s="74" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="48" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="49">
-        <v>44502</v>
+        <v>45229</v>
       </c>
       <c r="E26" s="49">
-        <f>D26+3</f>
-        <v>44505</v>
+        <f t="shared" si="24"/>
+        <v>45234</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="14"/>
@@ -4621,18 +5232,18 @@
     </row>
     <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="64" t="s">
-        <v>50</v>
+      <c r="B27" s="74" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="49">
-        <v>44501</v>
+        <v>45230</v>
       </c>
       <c r="E27" s="49">
-        <f>D27+4</f>
-        <v>44505</v>
+        <f t="shared" si="24"/>
+        <v>45235</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="14"/>
@@ -4715,18 +5326,18 @@
     </row>
     <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="63" t="s">
-        <v>49</v>
+      <c r="B28" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="49">
-        <v>44500</v>
+        <v>45231</v>
       </c>
       <c r="E28" s="49">
-        <f>D28+2</f>
-        <v>44502</v>
+        <f t="shared" si="24"/>
+        <v>45236</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="14"/>
@@ -4809,18 +5420,18 @@
     </row>
     <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="63" t="s">
-        <v>43</v>
+      <c r="B29" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="49">
-        <v>44502</v>
+        <v>45232</v>
       </c>
       <c r="E29" s="49">
-        <f>D29+3</f>
-        <v>44505</v>
+        <f t="shared" si="24"/>
+        <v>45237</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="14"/>
@@ -4903,18 +5514,18 @@
     </row>
     <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="63" t="s">
-        <v>48</v>
+      <c r="B30" s="62" t="s">
+        <v>43</v>
       </c>
       <c r="C30" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="49">
-        <v>44502</v>
+        <v>45233</v>
       </c>
       <c r="E30" s="49">
-        <f>D30+4</f>
-        <v>44506</v>
+        <f t="shared" si="24"/>
+        <v>45238</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="14"/>
@@ -4997,18 +5608,18 @@
     </row>
     <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="63" t="s">
-        <v>44</v>
+      <c r="B31" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="C31" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="49">
-        <v>44505</v>
+        <v>45234</v>
       </c>
       <c r="E31" s="49">
-        <f>D31+2</f>
-        <v>44507</v>
+        <f t="shared" si="24"/>
+        <v>45239</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="14"/>
@@ -5091,18 +5702,18 @@
     </row>
     <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="63" t="s">
-        <v>45</v>
+      <c r="B32" s="62" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="49">
-        <v>44501</v>
+        <v>45235</v>
       </c>
       <c r="E32" s="49">
-        <f>D32+6</f>
-        <v>44507</v>
+        <f t="shared" si="24"/>
+        <v>45240</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="14"/>
@@ -5185,18 +5796,18 @@
     </row>
     <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>10</v>
+      <c r="B33" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>35</v>
       </c>
       <c r="D33" s="49">
-        <v>44507</v>
+        <v>45236</v>
       </c>
       <c r="E33" s="49">
-        <f>D33+0</f>
-        <v>44507</v>
+        <f t="shared" si="24"/>
+        <v>45241</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="14"/>
@@ -5241,12 +5852,12 @@
       <c r="AT33" s="14"/>
       <c r="AU33" s="27"/>
       <c r="AV33" s="27"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="27"/>
+      <c r="AW33" s="59"/>
+      <c r="AX33" s="59"/>
+      <c r="AY33" s="59"/>
+      <c r="AZ33" s="59"/>
+      <c r="BA33" s="59"/>
+      <c r="BB33" s="59"/>
       <c r="BC33" s="27"/>
       <c r="BD33" s="14"/>
       <c r="BE33" s="14"/>
@@ -5373,11 +5984,11 @@
         <v>9</v>
       </c>
       <c r="D35" s="55">
-        <v>44515</v>
+        <v>45245</v>
       </c>
       <c r="E35" s="55">
         <f>D35+4</f>
-        <v>44519</v>
+        <v>45249</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="14"/>
@@ -5467,11 +6078,11 @@
         <v>10</v>
       </c>
       <c r="D36" s="55">
-        <v>44515</v>
+        <v>45246</v>
       </c>
       <c r="E36" s="55">
-        <f t="shared" ref="E36:E37" si="23">D36+4</f>
-        <v>44519</v>
+        <f t="shared" ref="E36:E37" si="25">D36+4</f>
+        <v>45250</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="14"/>
@@ -5561,11 +6172,11 @@
         <v>11</v>
       </c>
       <c r="D37" s="55">
-        <v>44515</v>
+        <v>45247</v>
       </c>
       <c r="E37" s="55">
-        <f t="shared" si="23"/>
-        <v>44519</v>
+        <f t="shared" si="25"/>
+        <v>45251</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="14"/>
@@ -5655,7 +6266,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="55">
-        <v>44522</v>
+        <v>45248</v>
       </c>
       <c r="E38" s="55">
         <v>44522</v>
@@ -5741,14 +6352,14 @@
     </row>
     <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="53" t="s">
-        <v>30</v>
+      <c r="B39" s="63" t="s">
+        <v>49</v>
       </c>
       <c r="C39" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="55">
-        <v>44522</v>
+        <v>45249</v>
       </c>
       <c r="E39" s="55">
         <v>44522</v>
@@ -5834,14 +6445,14 @@
     </row>
     <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="53" t="s">
-        <v>31</v>
+      <c r="B40" s="63" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="55">
-        <v>44523</v>
+        <v>45250</v>
       </c>
       <c r="E40" s="55">
         <v>44523</v>
@@ -5927,14 +6538,14 @@
     </row>
     <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="53" t="s">
-        <v>32</v>
+      <c r="B41" s="63" t="s">
+        <v>51</v>
       </c>
       <c r="C41" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="55">
-        <v>44525</v>
+        <v>45251</v>
       </c>
       <c r="E41" s="55">
         <v>44525</v>
@@ -6020,14 +6631,14 @@
     </row>
     <row r="42" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="53" t="s">
-        <v>33</v>
+      <c r="B42" s="63" t="s">
+        <v>30</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="55">
-        <v>44524</v>
+        <v>45252</v>
       </c>
       <c r="E42" s="55">
         <v>44524</v>
@@ -6114,13 +6725,13 @@
     <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="17"/>
       <c r="B43" s="53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C43" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="55">
-        <v>44524</v>
+        <v>45253</v>
       </c>
       <c r="E43" s="55">
         <v>44524</v>
@@ -6206,17 +6817,17 @@
     </row>
     <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="55">
-        <v>44523</v>
+        <v>45255</v>
       </c>
       <c r="E44" s="55">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="14"/>
@@ -6299,17 +6910,17 @@
     </row>
     <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="53" t="s">
-        <v>35</v>
+      <c r="B45" s="63" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="55">
-        <v>44524</v>
+        <v>45256</v>
       </c>
       <c r="E45" s="55">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="14"/>
@@ -6392,183 +7003,175 @@
     </row>
     <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="55">
-        <v>44525</v>
-      </c>
-      <c r="E46" s="55">
-        <v>44525</v>
-      </c>
+      <c r="B46" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="14"/>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14"/>
-      <c r="AU46" s="27"/>
-      <c r="AV46" s="27"/>
-      <c r="AW46" s="14"/>
-      <c r="AX46" s="14"/>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="27"/>
-      <c r="BC46" s="27"/>
-      <c r="BD46" s="14"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="14"/>
-      <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="27"/>
-      <c r="BJ46" s="27"/>
-      <c r="BK46" s="14"/>
-      <c r="BL46" s="14"/>
-      <c r="BM46" s="14"/>
-      <c r="BN46" s="14"/>
-      <c r="BO46" s="14"/>
-      <c r="BP46" s="27"/>
-      <c r="BQ46" s="27"/>
-      <c r="BR46" s="14"/>
-      <c r="BS46" s="14"/>
-      <c r="BT46" s="14"/>
-      <c r="BU46" s="14"/>
-      <c r="BV46" s="14"/>
-      <c r="BW46" s="27"/>
-      <c r="BX46" s="27"/>
-      <c r="BY46" s="14"/>
-      <c r="BZ46" s="14"/>
-      <c r="CA46" s="14"/>
-      <c r="CB46" s="14"/>
-      <c r="CC46" s="14"/>
-      <c r="CD46" s="27"/>
-      <c r="CE46" s="27"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="22"/>
+      <c r="AY46" s="22"/>
+      <c r="AZ46" s="22"/>
+      <c r="BA46" s="22"/>
+      <c r="BB46" s="22"/>
+      <c r="BC46" s="22"/>
+      <c r="BD46" s="22"/>
+      <c r="BE46" s="22"/>
+      <c r="BF46" s="22"/>
+      <c r="BG46" s="22"/>
+      <c r="BH46" s="22"/>
+      <c r="BI46" s="22"/>
+      <c r="BJ46" s="22"/>
+      <c r="BK46" s="22"/>
+      <c r="BL46" s="22"/>
+      <c r="BM46" s="22"/>
+      <c r="BN46" s="22"/>
+      <c r="BO46" s="22"/>
+      <c r="BP46" s="22"/>
+      <c r="BQ46" s="22"/>
+      <c r="BR46" s="22"/>
+      <c r="BS46" s="22"/>
+      <c r="BT46" s="22"/>
+      <c r="BU46" s="22"/>
+      <c r="BV46" s="22"/>
+      <c r="BW46" s="22"/>
+      <c r="BX46" s="22"/>
+      <c r="BY46" s="22"/>
+      <c r="BZ46" s="22"/>
+      <c r="CA46" s="22"/>
+      <c r="CB46" s="22"/>
+      <c r="CC46" s="22"/>
+      <c r="CD46" s="22"/>
+      <c r="CE46" s="22"/>
     </row>
-    <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22"/>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22"/>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22"/>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22"/>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22"/>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22"/>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22"/>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22"/>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22"/>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22"/>
-      <c r="CE47" s="22"/>
+    <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+      <c r="BW47"/>
+      <c r="BX47"/>
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+      <c r="CB47"/>
+      <c r="CC47"/>
+      <c r="CD47"/>
+      <c r="CE47"/>
     </row>
     <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A48"/>
@@ -6927,11 +7530,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -6941,355 +7539,334 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AB7:AF9 AI7:AM9 BD7:BH9 BK7:BO9 BR7:BV9 BY7:CC9 Z18:AA18 AU38:AV38 AN38:AO38 Z38:AA38 BD50:BT50 M38:M51 AU51:AV51 AN51:AO51 Z51:AA51 BD39:BJ41 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BV50:BX50 Q8:Y8 S9:Y9 BD11:BX11 S11:Y11 AC11:AM11 G7:R9 U7:Y9 AB8:AM9 BD8:CC9 AP7:AT9 AW7:BA9 AB11:AF17 AI11:AM17 BD11:BH17 BK11:BO17 BR11:BV17 BY11:CC17 G11:R17 U11:Y17 AP11:AT17 AW11:BA17 AB19:AF37 AI19:AM37 AB25:AM33 G25:Z33 BD25:CE33 AU34:AV34 AN34:AO34 Z34:AA34 BD45:BT46 AU47:AV47 AN47:AO47 Z47:AA47 BD35:BJ37 BP35:BX37 BD38:BQ39 BS38:BX39 BD40:BR40 BD41:BT41 BP39:BX41 BD42:BX43 BD44:BR44 BT44:BX44 BD45:BS47 BU45:BX47 AB35:AM50 BD19:BH50 BK19:BO50 BR19:BV50 BY19:CC50 G19:R50 U19:Z50 AP19:AT50 AW19:BA50 AG7:AH51 BI7:BJ51 BP7:BQ51 BW7:BX51 S7:T51 CD7:CE51">
-    <cfRule type="expression" dxfId="80" priority="170">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AB7:AF9 AI7:AM9 BD7:BH9 BK7:BO9 BR7:BV9 BY7:CC9 Z18:AA18 AU38:AV38 AN38:AO38 Z38:AA38 BY19:CC46 S7:T46 G7:I9 N7:R9 J7:M7 BD39:BJ41 BR19:BV46 CD7:CE46 BD19:BH46 U7:U9 BK19:BO46 Q8:Y8 V7:W8 BD11:BX11 S11:Y11 AH16:AI16 BD44:CE46 AB8:AM9 BD8:CC9 AP7:AT9 AW7:BA9 X7:Y9 AG18:AH46 BD11:BH17 BK11:BO17 BR11:BV17 BY11:CC17 G11:R17 U11:Y17 AP11:AT17 AW11:BA17 AB19:AF37 AI19:AM37 AB25:AM33 G25:Z33 BD25:CE33 AU34:AV34 AN34:AO34 Z34:AA34 BD35:BJ37 BP35:BX37 BD38:BQ39 BS38:BX39 BD40:BR40 BD41:BT41 BP39:BX41 BD42:BX43 AB35:AM46 S9:U9 BW7:BX46 Z46:AA46 U19:Z46 G44:Z46 AU46:AV46 AG11:AM11 AN46:AO46 BI7:BJ46 BP7:BQ46 AP19:AT46 G19:R46 J9:M9 AW34:BA46 AM11:AM17 AW19:BA32 AG7:AG16 AH7:AH14 AJ11:AL16 AI11:AI14 AB12:AD17 AE12:AF13 AE15:AF17">
+    <cfRule type="expression" dxfId="128" priority="176">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AB7:AF9 AI7:AM9 BD7:BH9 BK7:BO9 BR7:BV9 BY7:CC9 Z18:AA18 AU38:AV38 AN38:AO38 Z38:AA38 BD50:BT50 M38:M51 AU51:AV51 AN51:AO51 Z51:AA51 BD39:BJ41 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BV50:BX50 Q8:Y8 S9:Y9 BD11:BX11 S11:Y11 AC11:AM11 G7:R9 U7:Y9 AB8:AM9 BD8:CC9 AP7:AT9 AW7:BA9 AB11:AF17 AI11:AM17 BD11:BH17 BK11:BO17 BR11:BV17 BY11:CC17 G11:R17 U11:Y17 AP11:AT17 AW11:BA17 AB19:AF37 AI19:AM37 AB25:AM33 G25:Z33 BD25:CE33 AU34:AV34 AN34:AO34 Z34:AA34 BD45:BT46 AU47:AV47 AN47:AO47 Z47:AA47 BD35:BJ37 BP35:BX37 BD38:BQ39 BS38:BX39 BD40:BR40 BD41:BT41 BP39:BX41 BD42:BX43 BD44:BR44 BT44:BX44 BD45:BS47 BU45:BX47 AB35:AM50 BD19:BH50 BK19:BO50 BR19:BV50 BY19:CC50 G19:R50 U19:Z50 AP19:AT50 AW19:BA50 AG7:AH51 BI7:BJ51 BP7:BQ51 BW7:BX51 S7:T51 CD7:CE51">
-    <cfRule type="expression" dxfId="79" priority="164">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AB7:AF9 AI7:AM9 BD7:BH9 BK7:BO9 BR7:BV9 BY7:CC9 Z18:AA18 AU38:AV38 AN38:AO38 Z38:AA38 BY19:CC46 S7:T46 G7:I9 N7:R9 J7:M7 BD39:BJ41 BR19:BV46 CD7:CE46 BD19:BH46 U7:U9 BK19:BO46 Q8:Y8 V7:W8 BD11:BX11 S11:Y11 AH16:AI16 BD44:CE46 AB8:AM9 BD8:CC9 AP7:AT9 AW7:BA9 X7:Y9 AG18:AH46 BD11:BH17 BK11:BO17 BR11:BV17 BY11:CC17 G11:R17 U11:Y17 AP11:AT17 AW11:BA17 AB19:AF37 AI19:AM37 AB25:AM33 G25:Z33 BD25:CE33 AU34:AV34 AN34:AO34 Z34:AA34 BD35:BJ37 BP35:BX37 BD38:BQ39 BS38:BX39 BD40:BR40 BD41:BT41 BP39:BX41 BD42:BX43 AB35:AM46 S9:U9 BW7:BX46 Z46:AA46 U19:Z46 G44:Z46 AU46:AV46 AG11:AM11 AN46:AO46 BI7:BJ46 BP7:BQ46 AP19:AT46 G19:R46 J9:M9 AW34:BA46 AM11:AM17 AW19:BA32 AG7:AG16 AH7:AH14 AJ11:AL16 AI11:AI14 AB12:AD17 AE12:AF13 AE15:AF17">
+    <cfRule type="expression" dxfId="127" priority="170">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="171" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="77" priority="172">
+    <cfRule type="expression" dxfId="125" priority="178">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="76" priority="175">
+    <cfRule type="expression" dxfId="124" priority="181">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="182" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:R10 BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10">
-    <cfRule type="expression" dxfId="74" priority="121">
+    <cfRule type="expression" dxfId="122" priority="127">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:R10 BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10">
-    <cfRule type="expression" dxfId="73" priority="119">
+    <cfRule type="expression" dxfId="121" priority="125">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="126" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="71" priority="115">
+    <cfRule type="expression" dxfId="119" priority="121">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="70" priority="113">
+    <cfRule type="expression" dxfId="118" priority="119">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="120" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:R18 BY18:CC18 U18:Y18 AB18:AF18 AI18:AM18 AP18:AT18 AW18:BA18 BD18:BH18 BK18:BO18 BR18:BV18">
-    <cfRule type="expression" dxfId="68" priority="109">
+    <cfRule type="expression" dxfId="116" priority="115">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:R18 BY18:CC18 U18:Y18 AB18:AF18 AI18:AM18 AP18:AT18 AW18:BA18 BD18:BH18 BK18:BO18 BR18:BV18">
-    <cfRule type="expression" dxfId="67" priority="107">
+    <cfRule type="expression" dxfId="115" priority="113">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:K38 BY38:CC38 U38:Y38 N38:R38 AB38:AF38 AI38:AM38 AP38:AT38 AW38:BA38 BD38:BH38 BK38:BO38 BR38:BV38">
-    <cfRule type="expression" dxfId="65" priority="103">
+    <cfRule type="expression" dxfId="113" priority="109">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:K38 BY38:CC38 U38:Y38 N38:R38 AB38:AF38 AI38:AM38 AP38:AT38 AW38:BA38 BD38:BH38 BK38:BO38 BR38:BV38">
-    <cfRule type="expression" dxfId="64" priority="101">
+    <cfRule type="expression" dxfId="112" priority="107">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:R37 BY19:CC37 U19:Y37 L34:L51">
-    <cfRule type="expression" dxfId="62" priority="97">
+  <conditionalFormatting sqref="G19:R37 BY19:CC37 U19:Y37 L34:L46">
+    <cfRule type="expression" dxfId="110" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:R37 BY19:CC37 U19:Y37 L34:L51">
-    <cfRule type="expression" dxfId="61" priority="95">
+  <conditionalFormatting sqref="G19:R37 BY19:CC37 U19:Y37 L34:L46">
+    <cfRule type="expression" dxfId="109" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:K50 BZ35:CC50 U35:Y50 N35:R50">
-    <cfRule type="expression" dxfId="59" priority="91">
+  <conditionalFormatting sqref="U35:Y46 BZ35:CC46 G35:K46 N35:R46">
+    <cfRule type="expression" dxfId="107" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:K50 BZ35:CC50 U35:Y50 N35:R50">
-    <cfRule type="expression" dxfId="58" priority="89">
+  <conditionalFormatting sqref="U35:Y46 BZ35:CC46 G35:K46 N35:R46">
+    <cfRule type="expression" dxfId="106" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA17">
-    <cfRule type="expression" dxfId="56" priority="79">
+  <conditionalFormatting sqref="Z7:Z17 AA7:AA10 AA12:AA17">
+    <cfRule type="expression" dxfId="104" priority="85">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA17">
-    <cfRule type="expression" dxfId="55" priority="77">
+  <conditionalFormatting sqref="Z7:Z17 AA7:AA10 AA12:AA17">
+    <cfRule type="expression" dxfId="103" priority="83">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="84" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AO37">
-    <cfRule type="expression" dxfId="53" priority="73">
+    <cfRule type="expression" dxfId="101" priority="79">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AO37">
-    <cfRule type="expression" dxfId="52" priority="71">
+    <cfRule type="expression" dxfId="100" priority="77">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="78" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AV37">
-    <cfRule type="expression" dxfId="50" priority="70">
+    <cfRule type="expression" dxfId="98" priority="76">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AV37">
-    <cfRule type="expression" dxfId="49" priority="68">
+    <cfRule type="expression" dxfId="97" priority="74">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="75" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BC50">
-    <cfRule type="expression" dxfId="47" priority="67">
+  <conditionalFormatting sqref="BC7:BC46 BB7:BB32 BB34:BB46">
+    <cfRule type="expression" dxfId="95" priority="73">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BC50">
-    <cfRule type="expression" dxfId="46" priority="65">
+  <conditionalFormatting sqref="BC7:BC46 BB7:BB32 BB34:BB46">
+    <cfRule type="expression" dxfId="94" priority="71">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:AA37">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="92" priority="51">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:AA37">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="91" priority="49">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN35:AO50">
-    <cfRule type="expression" dxfId="41" priority="42">
+  <conditionalFormatting sqref="AN35:AO46">
+    <cfRule type="expression" dxfId="89" priority="48">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN35:AO50">
-    <cfRule type="expression" dxfId="40" priority="40">
+  <conditionalFormatting sqref="AN35:AO46">
+    <cfRule type="expression" dxfId="88" priority="46">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AV50">
-    <cfRule type="expression" dxfId="38" priority="39">
+  <conditionalFormatting sqref="AU35:AV46">
+    <cfRule type="expression" dxfId="86" priority="45">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AV50">
-    <cfRule type="expression" dxfId="37" priority="37">
+  <conditionalFormatting sqref="AU35:AV46">
+    <cfRule type="expression" dxfId="85" priority="43">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA35:AA50 BY35:BY50">
-    <cfRule type="expression" dxfId="35" priority="36">
+  <conditionalFormatting sqref="AA35:AA46 BY35:BY46">
+    <cfRule type="expression" dxfId="83" priority="42">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA35:AA50 BY35:BY50">
-    <cfRule type="expression" dxfId="34" priority="34">
+  <conditionalFormatting sqref="AA35:AA46 BY35:BY46">
+    <cfRule type="expression" dxfId="82" priority="40">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:K51 BY51:CC51 U51:Y51 N51:R51 AB51:AF51 AI51:AM51 AP51:AT51 AW51:BA51 BD51:BH51 BK51:BO51 BR51:BV51">
-    <cfRule type="expression" dxfId="32" priority="33">
+  <conditionalFormatting sqref="BY8:CC8 G8:I8 N8:R8">
+    <cfRule type="expression" dxfId="74" priority="33">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:K51 BY51:CC51 U51:Y51 N51:R51 AB51:AF51 AI51:AM51 AP51:AT51 AW51:BA51 BD51:BH51 BK51:BO51 BR51:BV51">
-    <cfRule type="expression" dxfId="31" priority="31">
+  <conditionalFormatting sqref="BY8:CC8 G8:I8 N8:R8">
+    <cfRule type="expression" dxfId="73" priority="31">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB51:BC51">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB51:BC51">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY8:CC8 G8:R8">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY8:CC8 G8:R8">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY9:CC9 G9:R9">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="71" priority="30">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY9:CC9 G9:R9">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="70" priority="28">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19:AA37">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="68" priority="27">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19:AA37">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="67" priority="25">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z35:AA50">
-    <cfRule type="expression" dxfId="17" priority="18">
+  <conditionalFormatting sqref="Z35:AA46">
+    <cfRule type="expression" dxfId="65" priority="24">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z35:AA50">
-    <cfRule type="expression" dxfId="16" priority="16">
+  <conditionalFormatting sqref="Z35:AA46">
+    <cfRule type="expression" dxfId="64" priority="22">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN35:AO50">
-    <cfRule type="expression" dxfId="14" priority="15">
+  <conditionalFormatting sqref="AN35:AO46">
+    <cfRule type="expression" dxfId="62" priority="21">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN35:AO50">
-    <cfRule type="expression" dxfId="13" priority="13">
+  <conditionalFormatting sqref="AN35:AO46">
+    <cfRule type="expression" dxfId="61" priority="19">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AV50">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="AU35:AV46">
+    <cfRule type="expression" dxfId="59" priority="18">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AV50">
-    <cfRule type="expression" dxfId="10" priority="10">
+  <conditionalFormatting sqref="AU35:AV46">
+    <cfRule type="expression" dxfId="58" priority="16">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K34 BY34:CC34 U34:Y34 N34:R34 AB34:AF34 AI34:AM34 AP34:AT34 AW34:BA34 BD34:BH34 BK34:BO34 BR34:BV34">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="56" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K34 BY34:CC34 U34:Y34 N34:R34 AB34:AF34 AI34:AM34 AP34:AT34 AW34:BA34 BD34:BH34 BK34:BO34 BR34:BV34">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="55" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:K47 BY47:CC47 U47:Y47 N47:R47 AB47:AF47 AI47:AM47 AP47:AT47 AW47:BA47 BD47:BH47 BK47:BO47 BR47:BV47">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="G46:K46 BY46:CC46 U46:Y46 N46:R46 AB46:AF46 AI46:AM46 AP46:AT46 AW46:BA46 BD46:BH46 BK46:BO46 BR46:BV46">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:K47 BY47:CC47 U47:Y47 N47:R47 AB47:AF47 AI47:AM47 AP47:AT47 AW47:BA47 BD47:BH47 BK47:BO47 BR47:BV47">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="G46:K46 BY46:CC46 U46:Y46 N46:R46 AB46:AF46 AI46:AM46 AP46:AT46 AW46:BA46 BD46:BH46 BK46:BO46 BR46:BV46">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB47:BC47">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="BB46:BC46">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB47:BC47">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="BB46:BC46">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7299,8 +7876,5 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="E13 E21" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Gantt-diagram.xlsx
+++ b/Gantt-diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E15B0E5-7301-486A-AC1E-BFCC2AFCA94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9FDAC-4340-4676-975D-C72ABD468323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +759,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -954,6 +960,24 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,23 +999,14 @@
     <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1010,7 +1025,1957 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="243">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1497,15 +3462,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="242"/>
+      <tableStyleElement type="headerRow" dxfId="241"/>
+      <tableStyleElement type="totalRow" dxfId="240"/>
+      <tableStyleElement type="firstColumn" dxfId="239"/>
+      <tableStyleElement type="lastColumn" dxfId="238"/>
+      <tableStyleElement type="firstRowStripe" dxfId="237"/>
+      <tableStyleElement type="secondRowStripe" dxfId="236"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="235"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="234"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1867,9 +3832,9 @@
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1993,10 +3958,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="87"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="11"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
@@ -2080,10 +4045,10 @@
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="87">
+      <c r="D3" s="83">
         <v>45197</v>
       </c>
-      <c r="E3" s="87"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2169,117 +4134,117 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="88">
+      <c r="F4" s="84"/>
+      <c r="G4" s="80">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="88">
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="80">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="88">
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="80">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="88">
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="80">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="88">
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="80">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="88">
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="80">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="88">
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="81"/>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="80">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="88">
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="80">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="89"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="88">
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="80">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="89"/>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="90"/>
-      <c r="BR4" s="88">
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="82"/>
+      <c r="BR4" s="80">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="89"/>
-      <c r="BT4" s="89"/>
-      <c r="BU4" s="89"/>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="90"/>
-      <c r="BY4" s="88">
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="81"/>
+      <c r="BU4" s="81"/>
+      <c r="BV4" s="81"/>
+      <c r="BW4" s="81"/>
+      <c r="BX4" s="82"/>
+      <c r="BY4" s="80">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="89"/>
-      <c r="CA4" s="89"/>
-      <c r="CB4" s="89"/>
-      <c r="CC4" s="89"/>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="90"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="82"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
@@ -2295,7 +4260,7 @@
       <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2799,15 +4764,15 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="82"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -3547,12 +5512,12 @@
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="95"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="39"/>
@@ -3612,7 +5577,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -3699,7 +5664,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="84"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -4375,12 +6340,12 @@
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="95"/>
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="34"/>
@@ -4469,12 +6434,12 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="39"/>
       <c r="AO26" s="39"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="39"/>
+      <c r="AP26" s="93"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="95"/>
       <c r="AV26" s="39"/>
       <c r="AW26" s="34"/>
       <c r="AX26" s="34"/>
@@ -4563,12 +6528,12 @@
       <c r="AN27" s="39"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="95"/>
       <c r="AW27" s="34"/>
       <c r="AX27" s="34"/>
       <c r="AY27" s="34"/>
@@ -4749,12 +6714,12 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
-      <c r="AS29" s="34"/>
-      <c r="AT29" s="34"/>
-      <c r="AU29" s="39"/>
-      <c r="AV29" s="39"/>
-      <c r="AW29" s="34"/>
-      <c r="AX29" s="34"/>
+      <c r="AS29" s="93"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="95"/>
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
       <c r="BA29" s="34"/>
@@ -4983,7 +6948,7 @@
       <c r="E32" s="59">
         <v>45240</v>
       </c>
-      <c r="F32" s="84"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -5068,13 +7033,9 @@
         <v>7</v>
       </c>
       <c r="C33" s="62"/>
-      <c r="D33" s="63">
-        <v>45236</v>
-      </c>
-      <c r="E33" s="64">
-        <v>45241</v>
-      </c>
-      <c r="F33" s="84"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -5159,9 +7120,13 @@
         <v>21</v>
       </c>
       <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="84"/>
+      <c r="D34" s="67">
+        <v>45241</v>
+      </c>
+      <c r="E34" s="67">
+        <v>45244</v>
+      </c>
+      <c r="F34" s="90"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
@@ -6068,83 +8033,83 @@
       <c r="D44" s="78"/>
       <c r="E44" s="79"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="83"/>
-      <c r="U44" s="83"/>
-      <c r="V44" s="83"/>
-      <c r="W44" s="83"/>
-      <c r="X44" s="83"/>
-      <c r="Y44" s="83"/>
-      <c r="Z44" s="83"/>
-      <c r="AA44" s="83"/>
-      <c r="AB44" s="83"/>
-      <c r="AC44" s="83"/>
-      <c r="AD44" s="83"/>
-      <c r="AE44" s="83"/>
-      <c r="AF44" s="83"/>
-      <c r="AG44" s="83"/>
-      <c r="AH44" s="83"/>
-      <c r="AI44" s="83"/>
-      <c r="AJ44" s="83"/>
-      <c r="AK44" s="83"/>
-      <c r="AL44" s="83"/>
-      <c r="AM44" s="83"/>
-      <c r="AN44" s="83"/>
-      <c r="AO44" s="83"/>
-      <c r="AP44" s="83"/>
-      <c r="AQ44" s="83"/>
-      <c r="AR44" s="83"/>
-      <c r="AS44" s="83"/>
-      <c r="AT44" s="83"/>
-      <c r="AU44" s="83"/>
-      <c r="AV44" s="83"/>
-      <c r="AW44" s="83"/>
-      <c r="AX44" s="83"/>
-      <c r="AY44" s="83"/>
-      <c r="AZ44" s="83"/>
-      <c r="BA44" s="83"/>
-      <c r="BB44" s="83"/>
-      <c r="BC44" s="83"/>
-      <c r="BD44" s="83"/>
-      <c r="BE44" s="83"/>
-      <c r="BF44" s="83"/>
-      <c r="BG44" s="83"/>
-      <c r="BH44" s="83"/>
-      <c r="BI44" s="83"/>
-      <c r="BJ44" s="83"/>
-      <c r="BK44" s="83"/>
-      <c r="BL44" s="83"/>
-      <c r="BM44" s="83"/>
-      <c r="BN44" s="83"/>
-      <c r="BO44" s="83"/>
-      <c r="BP44" s="83"/>
-      <c r="BQ44" s="83"/>
-      <c r="BR44" s="83"/>
-      <c r="BS44" s="83"/>
-      <c r="BT44" s="83"/>
-      <c r="BU44" s="83"/>
-      <c r="BV44" s="83"/>
-      <c r="BW44" s="83"/>
-      <c r="BX44" s="83"/>
-      <c r="BY44" s="83"/>
-      <c r="BZ44" s="83"/>
-      <c r="CA44" s="83"/>
-      <c r="CB44" s="83"/>
-      <c r="CC44" s="83"/>
-      <c r="CD44" s="83"/>
-      <c r="CE44" s="83"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="89"/>
+      <c r="AC44" s="89"/>
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="89"/>
+      <c r="AF44" s="89"/>
+      <c r="AG44" s="89"/>
+      <c r="AH44" s="89"/>
+      <c r="AI44" s="89"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="89"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="89"/>
+      <c r="AQ44" s="89"/>
+      <c r="AR44" s="89"/>
+      <c r="AS44" s="89"/>
+      <c r="AT44" s="89"/>
+      <c r="AU44" s="89"/>
+      <c r="AV44" s="89"/>
+      <c r="AW44" s="89"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="89"/>
+      <c r="AZ44" s="89"/>
+      <c r="BA44" s="89"/>
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="89"/>
+      <c r="BD44" s="89"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="89"/>
+      <c r="BG44" s="89"/>
+      <c r="BH44" s="89"/>
+      <c r="BI44" s="89"/>
+      <c r="BJ44" s="89"/>
+      <c r="BK44" s="89"/>
+      <c r="BL44" s="89"/>
+      <c r="BM44" s="89"/>
+      <c r="BN44" s="89"/>
+      <c r="BO44" s="89"/>
+      <c r="BP44" s="89"/>
+      <c r="BQ44" s="89"/>
+      <c r="BR44" s="89"/>
+      <c r="BS44" s="89"/>
+      <c r="BT44" s="89"/>
+      <c r="BU44" s="89"/>
+      <c r="BV44" s="89"/>
+      <c r="BW44" s="89"/>
+      <c r="BX44" s="89"/>
+      <c r="BY44" s="89"/>
+      <c r="BZ44" s="89"/>
+      <c r="CA44" s="89"/>
+      <c r="CB44" s="89"/>
+      <c r="CC44" s="89"/>
+      <c r="CD44" s="89"/>
+      <c r="CE44" s="89"/>
     </row>
     <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
@@ -6154,12 +8119,17 @@
       <c r="C47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
+  <mergeCells count="24">
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="AF16:AK16"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AU26"/>
+    <mergeCell ref="AQ27:AV27"/>
+    <mergeCell ref="AS29:AX29"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -6169,178 +8139,178 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM17 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF17 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH17 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE32 S34:T43 CD34:CE43">
-    <cfRule type="expression" dxfId="38" priority="152">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29">
+    <cfRule type="expression" dxfId="233" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM17 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF17 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH17 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE32 S34:T43 CD34:CE43">
-    <cfRule type="expression" dxfId="37" priority="146">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29">
+    <cfRule type="expression" dxfId="232" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="35" priority="154">
+    <cfRule type="expression" dxfId="230" priority="154">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="34" priority="157">
+    <cfRule type="expression" dxfId="229" priority="157">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="32" priority="103">
+    <cfRule type="expression" dxfId="227" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="31" priority="101">
+    <cfRule type="expression" dxfId="226" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="29" priority="97">
+    <cfRule type="expression" dxfId="224" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="28" priority="95">
+    <cfRule type="expression" dxfId="223" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="26" priority="73">
+    <cfRule type="expression" dxfId="221" priority="73">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="25" priority="71">
+    <cfRule type="expression" dxfId="220" priority="71">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="23" priority="61">
+    <cfRule type="expression" dxfId="218" priority="61">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="22" priority="59">
+    <cfRule type="expression" dxfId="217" priority="59">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="215" priority="24">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="214" priority="22">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="212" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="211" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="209" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="208" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="206" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="205" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="202" priority="7">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="200" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="199" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gantt-diagram.xlsx
+++ b/Gantt-diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9FDAC-4340-4676-975D-C72ABD468323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07363DF2-D700-4ABF-A97D-CD23B0E2BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -759,7 +759,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1007,6 +1007,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3832,9 +3838,9 @@
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7756,7 +7762,9 @@
       <c r="B41" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="66"/>
+      <c r="C41" s="66" t="s">
+        <v>28</v>
+      </c>
       <c r="D41" s="67">
         <v>45251</v>
       </c>
@@ -7811,21 +7819,21 @@
       <c r="AY41" s="34"/>
       <c r="AZ41" s="34"/>
       <c r="BA41" s="34"/>
-      <c r="BB41" s="39"/>
-      <c r="BC41" s="39"/>
-      <c r="BD41" s="34"/>
-      <c r="BE41" s="34"/>
-      <c r="BF41" s="34"/>
-      <c r="BG41" s="34"/>
-      <c r="BH41" s="34"/>
-      <c r="BI41" s="39"/>
-      <c r="BJ41" s="39"/>
-      <c r="BK41" s="34"/>
-      <c r="BL41" s="34"/>
-      <c r="BM41" s="34"/>
-      <c r="BN41" s="34"/>
-      <c r="BO41" s="34"/>
-      <c r="BP41" s="39"/>
+      <c r="BB41" s="96"/>
+      <c r="BC41" s="97"/>
+      <c r="BD41" s="97"/>
+      <c r="BE41" s="97"/>
+      <c r="BF41" s="97"/>
+      <c r="BG41" s="97"/>
+      <c r="BH41" s="97"/>
+      <c r="BI41" s="97"/>
+      <c r="BJ41" s="97"/>
+      <c r="BK41" s="97"/>
+      <c r="BL41" s="97"/>
+      <c r="BM41" s="97"/>
+      <c r="BN41" s="97"/>
+      <c r="BO41" s="94"/>
+      <c r="BP41" s="95"/>
       <c r="BQ41" s="39"/>
       <c r="BR41" s="34"/>
       <c r="BS41" s="34"/>
@@ -8119,7 +8127,7 @@
       <c r="C47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="G44:CE44"/>
     <mergeCell ref="F17:F18"/>
@@ -8130,6 +8138,7 @@
     <mergeCell ref="AP26:AU26"/>
     <mergeCell ref="AQ27:AV27"/>
     <mergeCell ref="AS29:AX29"/>
+    <mergeCell ref="BO41:BP41"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -8145,12 +8154,12 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
     <cfRule type="expression" dxfId="233" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
     <cfRule type="expression" dxfId="232" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
